--- a/Planning/Product Backlog/backlog.xlsx
+++ b/Planning/Product Backlog/backlog.xlsx
@@ -123,7 +123,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -143,13 +143,25 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -161,10 +173,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -187,8 +200,31 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -467,15 +503,18 @@
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="58.83203125" customWidth="1"/>
+    <col min="1" max="1" width="3.1640625" customWidth="1"/>
+    <col min="2" max="2" width="96.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="2.33203125" customWidth="1"/>
+    <col min="4" max="4" width="2.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -495,69 +534,69 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="8" t="s">
+    <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="15">
+        <v>1</v>
+      </c>
+      <c r="B2" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="5">
-        <v>1</v>
-      </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-    </row>
-    <row r="3" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A3" s="2">
+      <c r="C2" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="13">
+        <v>1</v>
+      </c>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+    </row>
+    <row r="3" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="15">
         <v>2</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="5">
-        <v>1</v>
-      </c>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-    </row>
-    <row r="4" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A4" s="2">
+      <c r="C3" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="13">
+        <v>1</v>
+      </c>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+    </row>
+    <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="15">
         <v>3</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="5">
-        <v>1</v>
-      </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-    </row>
-    <row r="5" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A5" s="2">
+      <c r="C4" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="13">
+        <v>1</v>
+      </c>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+    </row>
+    <row r="5" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="15">
         <v>4</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="5">
-        <v>1</v>
-      </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
+      <c r="C5" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="13">
+        <v>1</v>
+      </c>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
     </row>
     <row r="6" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
@@ -575,65 +614,71 @@
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
     </row>
-    <row r="7" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A7" s="2">
+    <row r="7" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A7" s="15">
         <v>6</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="5">
-        <v>1</v>
-      </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-    </row>
-    <row r="8" spans="1:6" s="3" customFormat="1" ht="28" x14ac:dyDescent="0.15">
-      <c r="A8" s="6">
-        <v>7</v>
-      </c>
-      <c r="B8" s="9" t="s">
+      <c r="C7" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="13">
+        <v>1</v>
+      </c>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+    </row>
+    <row r="8" spans="1:6" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A8" s="10">
+        <v>7</v>
+      </c>
+      <c r="B8" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" s="3" customFormat="1" ht="42" x14ac:dyDescent="0.15">
-      <c r="A9" s="6">
+      <c r="C8" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="13">
+        <v>1</v>
+      </c>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+    </row>
+    <row r="9" spans="1:6" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A9" s="10">
         <v>8</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" s="3" customFormat="1" ht="28" x14ac:dyDescent="0.15">
-      <c r="A10" s="6">
+      <c r="C9" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="13">
+        <v>1</v>
+      </c>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+    </row>
+    <row r="10" spans="1:6" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A10" s="10">
         <v>9</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" s="3" customFormat="1" ht="42" x14ac:dyDescent="0.15">
+      <c r="C10" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="13">
+        <v>1</v>
+      </c>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+    </row>
+    <row r="11" spans="1:6" s="3" customFormat="1" ht="28" x14ac:dyDescent="0.15">
       <c r="A11" s="6">
         <v>10</v>
       </c>
@@ -647,7 +692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="3" customFormat="1" ht="42" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6" s="3" customFormat="1" ht="28" x14ac:dyDescent="0.15">
       <c r="A12" s="6">
         <v>11</v>
       </c>
@@ -662,20 +707,22 @@
       </c>
     </row>
     <row r="13" spans="1:6" s="3" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A13" s="6">
+      <c r="A13" s="17">
         <v>12</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" s="5">
+      <c r="C13" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="17">
         <v>2</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" s="3" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="E13" s="17"/>
+      <c r="F13"/>
+    </row>
+    <row r="14" spans="1:6" s="3" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A14" s="6">
         <v>13</v>
       </c>
@@ -689,7 +736,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="3" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6" s="3" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A15" s="6">
         <v>14</v>
       </c>
@@ -703,19 +750,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="3" customFormat="1" ht="28" x14ac:dyDescent="0.15">
-      <c r="A16" s="6">
+    <row r="16" spans="1:6" s="3" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A16" s="17">
         <v>15</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16" s="5">
+      <c r="C16" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="17">
         <v>3</v>
       </c>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
     </row>
     <row r="17" spans="1:6" s="3" customFormat="1" ht="28" x14ac:dyDescent="0.15">
       <c r="A17" s="6">
@@ -745,7 +794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="3" customFormat="1" ht="56" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:6" s="3" customFormat="1" ht="42" x14ac:dyDescent="0.15">
       <c r="A19" s="6">
         <v>18</v>
       </c>
@@ -787,7 +836,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:6" s="3" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:6" s="3" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A22" s="6">
         <v>21</v>
       </c>
@@ -801,7 +850,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="70" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:6" ht="42" x14ac:dyDescent="0.15">
       <c r="A23" s="6">
         <v>22</v>
       </c>
